--- a/Datamining/Data preparation/Data/Turtle nesting Info/NC and SC-2009_2016_Turtle_Activity_Integrated.xlsx
+++ b/Datamining/Data preparation/Data/Turtle nesting Info/NC and SC-2009_2016_Turtle_Activity_Integrated.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24520" windowHeight="13500"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24520" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$V$64</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="437">
   <si>
     <t>Case Number</t>
   </si>
@@ -1362,6 +1362,9 @@
   </si>
   <si>
     <t>26-Jun-2011</t>
+  </si>
+  <si>
+    <t>Turtle Count</t>
   </si>
 </sst>
 </file>
@@ -1863,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1878,7 +1881,7 @@
     <col min="19" max="19" width="11.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,10 +1941,13 @@
         <v>254</v>
       </c>
       <c r="U1" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -2005,11 +2011,14 @@
         <f>IF((AND(_xlfn.NUMBERVALUE(R2)&gt;=10,_xlfn.NUMBERVALUE(R2)&lt;12.75)),"EarlyDay",IF((AND(_xlfn.NUMBERVALUE(R2)&gt;12.75,_xlfn.NUMBERVALUE(R2)&lt;15.5)),"Day",IF(AND(_xlfn.NUMBERVALUE(R2)&gt;15.5,_xlfn.NUMBERVALUE(R2)&lt;18.25),"PostDay&amp;Dusk",IF(AND(_xlfn.NUMBERVALUE(R2)&gt;18.25,_xlfn.NUMBERVALUE(R2)&lt;=21),"Evening"))))</f>
         <v>Day</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -2071,11 +2080,14 @@
         <f>IF((AND(_xlfn.NUMBERVALUE(R3)&gt;=10,_xlfn.NUMBERVALUE(R3)&lt;12.75)),"EarlyDay",IF((AND(_xlfn.NUMBERVALUE(R3)&gt;12.75,_xlfn.NUMBERVALUE(R3)&lt;15.5)),"Day",IF(AND(_xlfn.NUMBERVALUE(R3)&gt;15.5,_xlfn.NUMBERVALUE(R3)&lt;18.25),"PostDay&amp;Dusk",IF(AND(_xlfn.NUMBERVALUE(R3)&gt;18.25,_xlfn.NUMBERVALUE(R3)&lt;=21),"Evening"))))</f>
         <v>Day</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="6">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2133,11 +2145,14 @@
       <c r="T4" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="67" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>251</v>
       </c>
       <c r="R5" s="6" t="str">
-        <f t="shared" ref="R3:R32" si="0">LEFT(N5,2)</f>
+        <f t="shared" ref="R5:R32" si="0">LEFT(N5,2)</f>
         <v>12</v>
       </c>
       <c r="S5" s="6" t="b">
@@ -2198,14 +2213,17 @@
         <v>1</v>
       </c>
       <c r="T5" s="6" t="str">
-        <f t="shared" ref="T3:T63" si="1">IF((AND(_xlfn.NUMBERVALUE(R5)&gt;=10,_xlfn.NUMBERVALUE(R5)&lt;12.75)),"EarlyDay",IF((AND(_xlfn.NUMBERVALUE(R5)&gt;12.75,_xlfn.NUMBERVALUE(R5)&lt;15.5)),"Day",IF(AND(_xlfn.NUMBERVALUE(R5)&gt;15.5,_xlfn.NUMBERVALUE(R5)&lt;18.25),"PostDay&amp;Dusk",IF(AND(_xlfn.NUMBERVALUE(R5)&gt;18.25,_xlfn.NUMBERVALUE(R5)&lt;=21),"Evening"))))</f>
+        <f t="shared" ref="T5:T63" si="1">IF((AND(_xlfn.NUMBERVALUE(R5)&gt;=10,_xlfn.NUMBERVALUE(R5)&lt;12.75)),"EarlyDay",IF((AND(_xlfn.NUMBERVALUE(R5)&gt;12.75,_xlfn.NUMBERVALUE(R5)&lt;15.5)),"Day",IF(AND(_xlfn.NUMBERVALUE(R5)&gt;15.5,_xlfn.NUMBERVALUE(R5)&lt;18.25),"PostDay&amp;Dusk",IF(AND(_xlfn.NUMBERVALUE(R5)&gt;18.25,_xlfn.NUMBERVALUE(R5)&lt;=21),"Evening"))))</f>
         <v>EarlyDay</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="6">
+        <v>14</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
@@ -2269,11 +2287,14 @@
         <f>IF((AND(_xlfn.NUMBERVALUE(R6)&gt;=10,_xlfn.NUMBERVALUE(R6)&lt;12.75)),"EarlyDay",IF((AND(_xlfn.NUMBERVALUE(R6)&gt;12.75,_xlfn.NUMBERVALUE(R6)&lt;15.5)),"Day",IF(AND(_xlfn.NUMBERVALUE(R6)&gt;15.5,_xlfn.NUMBERVALUE(R6)&lt;18.25),"PostDay&amp;Dusk",IF(AND(_xlfn.NUMBERVALUE(R6)&gt;18.25,_xlfn.NUMBERVALUE(R6)&lt;=21),"Evening"))))</f>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="6">
+        <v>13</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
@@ -2335,11 +2356,14 @@
         <f t="shared" si="1"/>
         <v>EarlyDay</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="6">
+        <v>12</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
@@ -2403,11 +2427,14 @@
         <f t="shared" si="1"/>
         <v>EarlyDay</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>78</v>
       </c>
@@ -2471,11 +2498,14 @@
         <f t="shared" si="1"/>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="6">
+        <v>8</v>
+      </c>
+      <c r="V9" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>86</v>
       </c>
@@ -2539,11 +2569,14 @@
         <f t="shared" si="1"/>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="6">
+        <v>8</v>
+      </c>
+      <c r="V10" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -2607,11 +2640,14 @@
         <f t="shared" si="1"/>
         <v>EarlyDay</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="6">
+        <v>7</v>
+      </c>
+      <c r="V11" s="6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>101</v>
       </c>
@@ -2671,11 +2707,14 @@
       <c r="T12" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>109</v>
       </c>
@@ -2731,11 +2770,14 @@
       <c r="T13" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>116</v>
       </c>
@@ -2795,11 +2837,14 @@
       <c r="T14" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>122</v>
       </c>
@@ -2855,11 +2900,14 @@
       <c r="T15" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="6">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
@@ -2921,11 +2969,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U16" s="6" t="s">
+      <c r="U16" s="6">
+        <v>2</v>
+      </c>
+      <c r="V16" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>137</v>
       </c>
@@ -2987,11 +3038,14 @@
         <f t="shared" si="1"/>
         <v>EarlyDay</v>
       </c>
-      <c r="U17" s="6" t="s">
+      <c r="U17" s="6">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>144</v>
       </c>
@@ -3053,11 +3107,14 @@
         <f t="shared" si="1"/>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U18" s="6" t="s">
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
+      <c r="V18" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>152</v>
       </c>
@@ -3119,11 +3176,14 @@
         <f t="shared" si="1"/>
         <v>EarlyDay</v>
       </c>
-      <c r="U19" s="6" t="s">
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
+      <c r="V19" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>158</v>
       </c>
@@ -3187,11 +3247,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="6">
+        <v>3</v>
+      </c>
+      <c r="V20" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>165</v>
       </c>
@@ -3249,11 +3312,14 @@
       <c r="T21" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U21" s="6" t="s">
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>173</v>
       </c>
@@ -3313,11 +3379,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>178</v>
       </c>
@@ -3381,11 +3450,14 @@
         <f t="shared" si="1"/>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>185</v>
       </c>
@@ -3445,11 +3517,14 @@
         <f t="shared" si="1"/>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>189</v>
       </c>
@@ -3511,11 +3586,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>197</v>
       </c>
@@ -3577,11 +3655,14 @@
         <f t="shared" si="1"/>
         <v>PostDay&amp;Dusk</v>
       </c>
-      <c r="U26" s="6" t="s">
+      <c r="U26" s="6">
+        <v>2</v>
+      </c>
+      <c r="V26" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>204</v>
       </c>
@@ -3643,11 +3724,14 @@
       <c r="T27" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="U27" s="6" t="s">
+      <c r="U27" s="6">
+        <v>3</v>
+      </c>
+      <c r="V27" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>211</v>
       </c>
@@ -3709,11 +3793,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U28" s="6" t="s">
+      <c r="U28" s="6">
+        <v>0</v>
+      </c>
+      <c r="V28" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>217</v>
       </c>
@@ -3777,11 +3864,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="U29" s="6">
+        <v>0</v>
+      </c>
+      <c r="V29" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>222</v>
       </c>
@@ -3843,11 +3933,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U30" s="6" t="s">
+      <c r="U30" s="6">
+        <v>1</v>
+      </c>
+      <c r="V30" s="6" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>227</v>
       </c>
@@ -3911,11 +4004,14 @@
         <f t="shared" si="1"/>
         <v>Evening</v>
       </c>
-      <c r="U31" s="6" t="s">
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+      <c r="V31" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>238</v>
       </c>
@@ -3977,11 +4073,14 @@
         <f t="shared" si="1"/>
         <v>Day</v>
       </c>
-      <c r="U32" s="6" t="s">
+      <c r="U32" s="6">
+        <v>0</v>
+      </c>
+      <c r="V32" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>256</v>
       </c>
@@ -4044,8 +4143,9 @@
         <v>PostDay&amp;Dusk</v>
       </c>
       <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>262</v>
       </c>
@@ -4110,8 +4210,9 @@
         <v>Day</v>
       </c>
       <c r="U34" s="6"/>
-    </row>
-    <row r="35" spans="1:21" ht="78" x14ac:dyDescent="0.2">
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22" ht="78" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>270</v>
       </c>
@@ -4176,8 +4277,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="1:21" ht="67" x14ac:dyDescent="0.2">
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" ht="67" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>276</v>
       </c>
@@ -4240,8 +4342,9 @@
         <v>PostDay&amp;Dusk</v>
       </c>
       <c r="U36" s="6"/>
-    </row>
-    <row r="37" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>281</v>
       </c>
@@ -4302,8 +4405,9 @@
         <v>PostDay&amp;Dusk</v>
       </c>
       <c r="U37" s="6"/>
-    </row>
-    <row r="38" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V37" s="6"/>
+    </row>
+    <row r="38" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>286</v>
       </c>
@@ -4368,8 +4472,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="1:21" ht="67" x14ac:dyDescent="0.2">
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" ht="67" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>291</v>
       </c>
@@ -4434,8 +4539,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U39" s="6"/>
-    </row>
-    <row r="40" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+      <c r="V39" s="6"/>
+    </row>
+    <row r="40" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>298</v>
       </c>
@@ -4500,8 +4606,9 @@
         <v>PostDay&amp;Dusk</v>
       </c>
       <c r="U40" s="6"/>
-    </row>
-    <row r="41" spans="1:21" ht="67" x14ac:dyDescent="0.2">
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="1:22" ht="67" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>306</v>
       </c>
@@ -4566,8 +4673,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U41" s="6"/>
-    </row>
-    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>312</v>
       </c>
@@ -4628,8 +4736,9 @@
         <v>429</v>
       </c>
       <c r="U42" s="6"/>
-    </row>
-    <row r="43" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+      <c r="V42" s="6"/>
+    </row>
+    <row r="43" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>318</v>
       </c>
@@ -4692,8 +4801,9 @@
         <v>Day</v>
       </c>
       <c r="U43" s="6"/>
-    </row>
-    <row r="44" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V43" s="6"/>
+    </row>
+    <row r="44" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>324</v>
       </c>
@@ -4754,8 +4864,9 @@
         <v>429</v>
       </c>
       <c r="U44" s="6"/>
-    </row>
-    <row r="45" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V44" s="6"/>
+    </row>
+    <row r="45" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>333</v>
       </c>
@@ -4816,8 +4927,9 @@
         <v>Day</v>
       </c>
       <c r="U45" s="6"/>
-    </row>
-    <row r="46" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>335</v>
       </c>
@@ -4882,8 +4994,9 @@
         <v>Day</v>
       </c>
       <c r="U46" s="6"/>
-    </row>
-    <row r="47" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V46" s="6"/>
+    </row>
+    <row r="47" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>341</v>
       </c>
@@ -4948,8 +5061,9 @@
         <v>PostDay&amp;Dusk</v>
       </c>
       <c r="U47" s="6"/>
-    </row>
-    <row r="48" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+      <c r="V47" s="6"/>
+    </row>
+    <row r="48" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>349</v>
       </c>
@@ -5014,8 +5128,9 @@
         <v>Day</v>
       </c>
       <c r="U48" s="6"/>
-    </row>
-    <row r="49" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V48" s="6"/>
+    </row>
+    <row r="49" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>355</v>
       </c>
@@ -5070,8 +5185,9 @@
         <v>429</v>
       </c>
       <c r="U49" s="6"/>
-    </row>
-    <row r="50" spans="1:21" ht="67" x14ac:dyDescent="0.2">
+      <c r="V49" s="6"/>
+    </row>
+    <row r="50" spans="1:22" ht="67" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>360</v>
       </c>
@@ -5136,8 +5252,9 @@
         <v>PostDay&amp;Dusk</v>
       </c>
       <c r="U50" s="6"/>
-    </row>
-    <row r="51" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+      <c r="V50" s="6"/>
+    </row>
+    <row r="51" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>367</v>
       </c>
@@ -5196,8 +5313,9 @@
         <v>429</v>
       </c>
       <c r="U51" s="6"/>
-    </row>
-    <row r="52" spans="1:21" ht="56" x14ac:dyDescent="0.2">
+      <c r="V51" s="6"/>
+    </row>
+    <row r="52" spans="1:22" ht="56" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>371</v>
       </c>
@@ -5262,8 +5380,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U52" s="6"/>
-    </row>
-    <row r="53" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V52" s="6"/>
+    </row>
+    <row r="53" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>376</v>
       </c>
@@ -5326,8 +5445,9 @@
         <v>429</v>
       </c>
       <c r="U53" s="6"/>
-    </row>
-    <row r="54" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+      <c r="V53" s="6"/>
+    </row>
+    <row r="54" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>382</v>
       </c>
@@ -5388,8 +5508,9 @@
         <v>429</v>
       </c>
       <c r="U54" s="6"/>
-    </row>
-    <row r="55" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+      <c r="V54" s="6"/>
+    </row>
+    <row r="55" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>387</v>
       </c>
@@ -5452,8 +5573,9 @@
         <v>429</v>
       </c>
       <c r="U55" s="6"/>
-    </row>
-    <row r="56" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V55" s="6"/>
+    </row>
+    <row r="56" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>391</v>
       </c>
@@ -5514,8 +5636,9 @@
         <v>429</v>
       </c>
       <c r="U56" s="6"/>
-    </row>
-    <row r="57" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+      <c r="V56" s="6"/>
+    </row>
+    <row r="57" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>392</v>
       </c>
@@ -5576,8 +5699,9 @@
         <v>429</v>
       </c>
       <c r="U57" s="6"/>
-    </row>
-    <row r="58" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+      <c r="V57" s="6"/>
+    </row>
+    <row r="58" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>393</v>
       </c>
@@ -5642,8 +5766,9 @@
         <v>Day</v>
       </c>
       <c r="U58" s="6"/>
-    </row>
-    <row r="59" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>398</v>
       </c>
@@ -5706,8 +5831,9 @@
         <v>Evening</v>
       </c>
       <c r="U59" s="6"/>
-    </row>
-    <row r="60" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V59" s="6"/>
+    </row>
+    <row r="60" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>403</v>
       </c>
@@ -5770,8 +5896,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U60" s="6"/>
-    </row>
-    <row r="61" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>410</v>
       </c>
@@ -5832,8 +5959,9 @@
         <v>429</v>
       </c>
       <c r="U61" s="6"/>
-    </row>
-    <row r="62" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V61" s="6"/>
+    </row>
+    <row r="62" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>414</v>
       </c>
@@ -5894,8 +6022,9 @@
         <v>429</v>
       </c>
       <c r="U62" s="6"/>
-    </row>
-    <row r="63" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V62" s="6"/>
+    </row>
+    <row r="63" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>418</v>
       </c>
@@ -5960,8 +6089,9 @@
         <v>EarlyDay</v>
       </c>
       <c r="U63" s="6"/>
-    </row>
-    <row r="64" spans="1:21" ht="23" x14ac:dyDescent="0.2">
+      <c r="V63" s="6"/>
+    </row>
+    <row r="64" spans="1:22" ht="23" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>425</v>
       </c>
@@ -6020,9 +6150,10 @@
         <v>429</v>
       </c>
       <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U64"/>
+  <autoFilter ref="A1:V64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
